--- a/data/outputs/management/82.xlsx
+++ b/data/outputs/management/82.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ145"/>
+  <dimension ref="A1:BR145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +922,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4824213</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1136,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4395875</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1354,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4392738</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1556,6 +1576,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4397103</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1761,6 +1786,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4468626</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +2008,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4451889</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2183,6 +2218,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2392,6 +2428,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4912145</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2609,6 +2650,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4511588</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2830,6 +2876,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4380579</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3035,6 +3086,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3236,6 +3288,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4582060</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3441,6 +3498,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>18453577</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3650,6 +3712,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4555370</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3871,6 +3938,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>3127014</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4098,6 +4170,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>3743360</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4319,6 +4396,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3554580</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4524,6 +4606,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4312818</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4745,6 +4832,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4970,6 +5058,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4008346</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5191,6 +5284,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>3793559</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5404,6 +5502,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>3812483</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5609,6 +5712,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5834,6 +5938,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6051,6 +6156,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4391049</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6264,6 +6374,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6465,6 +6576,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6678,6 +6790,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>12019516</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6887,6 +7004,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7100,6 +7218,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4292096</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7313,6 +7436,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4168162</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7522,6 +7650,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7735,6 +7864,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4344353</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7952,6 +8086,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>30640230</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8157,6 +8296,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4619539</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8374,6 +8518,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>16281782</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8583,6 +8732,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8788,6 +8938,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9005,6 +9156,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9206,6 +9358,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>8969051</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9407,6 +9564,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9608,6 +9766,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>4333787</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9817,6 +9980,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10030,6 +10194,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10243,6 +10408,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4009585</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10452,6 +10622,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10669,6 +10840,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>18684126</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10874,6 +11050,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11083,6 +11260,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4251237</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11292,6 +11474,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>4291901</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11489,6 +11676,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4004074</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11690,6 +11882,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4040744</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11899,6 +12096,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>5883172</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12088,6 +12290,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>3976052</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12309,6 +12516,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>3960565</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12530,6 +12742,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>3912708</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12743,6 +12960,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>3960566</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12956,6 +13178,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>3980096</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13173,6 +13400,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13378,6 +13606,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>5371856</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13587,6 +13820,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>3152230</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13796,6 +14034,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>3899969</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14013,6 +14256,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>3944306</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14222,6 +14470,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>2939864</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14443,6 +14696,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>3024098</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14648,6 +14906,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>4512360</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14853,6 +15116,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>3018764</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15062,6 +15330,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15279,6 +15548,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15496,6 +15766,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>3012673</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15717,6 +15992,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>3024099</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15930,6 +16210,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>3015556</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16151,6 +16436,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>3024100</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16360,6 +16650,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>3724484</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16569,6 +16864,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>3733947</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16778,6 +17078,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>3865038</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16995,6 +17300,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>3794490</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17204,6 +17514,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>3858557</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17421,6 +17736,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17630,6 +17946,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>3733948</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17839,6 +18160,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>3863942</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18048,6 +18374,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>3858684</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18265,6 +18596,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>3841278</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18482,6 +18818,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>3854754</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18687,6 +19028,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>2974572</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18896,6 +19242,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>3851782</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19113,6 +19464,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>3757518</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19322,6 +19678,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>3123332</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19543,6 +19904,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>9904061</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19756,6 +20122,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19965,6 +20332,11 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>3130032</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20182,6 +20554,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20399,6 +20772,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>9298908</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20616,6 +20994,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20817,6 +21196,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>3688064</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21030,6 +21414,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21247,6 +21632,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>2893494</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21460,6 +21850,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21673,6 +22064,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21874,6 +22266,11 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>9906505</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22095,6 +22492,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>2929826</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22300,6 +22702,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>33705172</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22509,6 +22916,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>2991256</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22726,6 +23138,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22931,6 +23344,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>3035160</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23132,6 +23550,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>3079109</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23341,6 +23764,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23550,6 +23974,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>3078826</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23751,6 +24180,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23964,6 +24394,11 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>2658456</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24169,6 +24604,11 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>7312556</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24378,6 +24818,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24591,6 +25032,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>9907944</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24800,6 +25246,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>2848620</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25005,6 +25456,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25214,6 +25666,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>4226549</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25415,6 +25872,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25616,6 +26074,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25825,6 +26284,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>2888387</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26026,6 +26490,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26227,6 +26692,11 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t>9910407</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26432,6 +26902,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26637,6 +27108,11 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr">
+        <is>
+          <t>2869544</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26846,6 +27322,11 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>2771607</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27055,6 +27536,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>8371124</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27264,6 +27750,11 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr">
+        <is>
+          <t>2997377</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27477,6 +27968,11 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr">
+        <is>
+          <t>2801315</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27678,6 +28174,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>2955385</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27887,6 +28388,11 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr">
+        <is>
+          <t>2620429</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28092,6 +28598,11 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr">
+        <is>
+          <t>2674619</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28293,6 +28804,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28498,6 +29010,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28707,6 +29220,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>2582214</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28908,6 +29426,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29113,6 +29632,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29326,6 +29846,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>2750098</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29535,6 +30060,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29736,6 +30262,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29941,6 +30468,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30150,6 +30678,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>3720658</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30355,6 +30888,11 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>2529143</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30568,6 +31106,11 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr">
+        <is>
+          <t>2947075</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30769,6 +31312,11 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr">
+        <is>
+          <t>2998452</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30970,6 +31518,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
